--- a/docs/電腦繪圖國小高年級甲組靜態類決賽名冊.xlsx
+++ b/docs/電腦繪圖國小高年級甲組靜態類決賽名冊.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igogo\Documents\IDEAProjects\readxls\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igogo\Documents\資網中心\試場安排\2019資料\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4140"/>
   </bookViews>
   <sheets>
     <sheet name="電腦繪圖國小高年級甲組靜態類決賽名冊" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="230">
   <si>
     <t>序</t>
   </si>
@@ -51,7 +51,7 @@
     <t>大甲區大甲國小</t>
   </si>
   <si>
-    <t>紀佩辰</t>
+    <t>王奕晴</t>
   </si>
   <si>
     <t>徐敏議</t>
@@ -60,223 +60,250 @@
     <t>Windows 小畫家</t>
   </si>
   <si>
-    <t>sm60g2</t>
-  </si>
-  <si>
-    <t>et48kf8</t>
+    <t>hp56wh6</t>
+  </si>
+  <si>
+    <t>wh42gw8</t>
+  </si>
+  <si>
+    <t>張又文</t>
+  </si>
+  <si>
+    <t>tv99xb9</t>
+  </si>
+  <si>
+    <t>kf5wh6</t>
   </si>
   <si>
     <t>賀星語</t>
   </si>
   <si>
-    <t>MyPaint 1.2.1</t>
-  </si>
-  <si>
-    <t>nc8r6</t>
-  </si>
-  <si>
-    <t>my41yg4</t>
+    <t>Krita 4.1.7</t>
+  </si>
+  <si>
+    <t>myg91yg3</t>
+  </si>
+  <si>
+    <t>pet64nc8</t>
   </si>
   <si>
     <t>大甲區文昌國小</t>
   </si>
   <si>
+    <t>許立廉</t>
+  </si>
+  <si>
+    <t>謝俊異</t>
+  </si>
+  <si>
+    <t>wh68p3</t>
+  </si>
+  <si>
+    <t>sm74yg7</t>
+  </si>
+  <si>
     <t>陳品妍</t>
   </si>
   <si>
-    <t>謝俊異</t>
-  </si>
-  <si>
-    <t>jk64x5</t>
-  </si>
-  <si>
-    <t>m85kf3</t>
-  </si>
-  <si>
-    <t>大里區塗城國小</t>
-  </si>
-  <si>
-    <t>徐彩桓</t>
-  </si>
-  <si>
-    <t>王聖文</t>
-  </si>
-  <si>
-    <t>anc60tv8</t>
-  </si>
-  <si>
-    <t>rsm22tv4</t>
-  </si>
-  <si>
-    <t>大里區瑞城國小</t>
-  </si>
-  <si>
-    <t>廖孟姍</t>
-  </si>
-  <si>
-    <t>陳慧玲</t>
-  </si>
-  <si>
-    <t>m36fr4</t>
-  </si>
-  <si>
-    <t>wh28k6</t>
+    <t>dx79b9</t>
+  </si>
+  <si>
+    <t>kfr7my3</t>
   </si>
   <si>
     <t>大雅區大明國小</t>
   </si>
   <si>
-    <t>洪子芸</t>
+    <t>吳芷妤</t>
   </si>
   <si>
     <t>周熙平</t>
   </si>
   <si>
-    <t>ygw65k9</t>
-  </si>
-  <si>
-    <t>hp17w5</t>
-  </si>
-  <si>
-    <t>太平區新光國小</t>
-  </si>
-  <si>
-    <t>林亞筑</t>
-  </si>
-  <si>
-    <t>余佳芳</t>
-  </si>
-  <si>
-    <t>s8tv4</t>
-  </si>
-  <si>
-    <t>xb42pe5</t>
+    <t>tv62wh6</t>
+  </si>
+  <si>
+    <t>jk91r6</t>
+  </si>
+  <si>
+    <t>大雅區六寶國小</t>
+  </si>
+  <si>
+    <t>歐芃吟</t>
+  </si>
+  <si>
+    <t>許富量</t>
+  </si>
+  <si>
+    <t>Gimp 2.10.8</t>
+  </si>
+  <si>
+    <t>w39s2</t>
+  </si>
+  <si>
+    <t>etv82dx7</t>
+  </si>
+  <si>
+    <t>太平區東平國小</t>
+  </si>
+  <si>
+    <t>張伊紘</t>
+  </si>
+  <si>
+    <t>余忠鴻</t>
+  </si>
+  <si>
+    <t>cdx42s2</t>
+  </si>
+  <si>
+    <t>jkf37k9</t>
   </si>
   <si>
     <t>北屯區仁美國小</t>
   </si>
   <si>
-    <t>蔡宜庭</t>
+    <t>程又前</t>
   </si>
   <si>
     <t>黃瓊瑩</t>
   </si>
   <si>
-    <t>xbj74g3</t>
-  </si>
-  <si>
-    <t>xb34xb2</t>
-  </si>
-  <si>
-    <t>王欣宇</t>
-  </si>
-  <si>
-    <t>k38rs1</t>
-  </si>
-  <si>
-    <t>kf62bj5</t>
-  </si>
-  <si>
-    <t>葉家琦</t>
-  </si>
-  <si>
-    <t>p43h5</t>
-  </si>
-  <si>
-    <t>gwh21sm2</t>
-  </si>
-  <si>
-    <t>楊心彤</t>
-  </si>
-  <si>
-    <t>cd64k8</t>
-  </si>
-  <si>
-    <t>ygw38g1</t>
+    <t>ncd64n4</t>
+  </si>
+  <si>
+    <t>h28j3</t>
+  </si>
+  <si>
+    <t>北屯區仁愛國小</t>
+  </si>
+  <si>
+    <t>陳湘渝</t>
+  </si>
+  <si>
+    <t>黃建誠</t>
+  </si>
+  <si>
+    <t>nc26bj4</t>
+  </si>
+  <si>
+    <t>pet81gw3</t>
   </si>
   <si>
     <t>北屯區文心國小</t>
   </si>
   <si>
-    <t>吳思儒</t>
+    <t>廖寀妤</t>
+  </si>
+  <si>
+    <t>施龍文</t>
+  </si>
+  <si>
+    <t>t78gw4</t>
+  </si>
+  <si>
+    <t>d37w3</t>
+  </si>
+  <si>
+    <t>陳乙嘉</t>
   </si>
   <si>
     <t>林義哲</t>
   </si>
   <si>
-    <t>d76et7</t>
-  </si>
-  <si>
-    <t>pe13cd3</t>
-  </si>
-  <si>
-    <t>北屯區文昌國小</t>
-  </si>
-  <si>
-    <t>張凱涵</t>
-  </si>
-  <si>
-    <t>晋鳳山</t>
-  </si>
-  <si>
-    <t>hpe51xb6</t>
-  </si>
-  <si>
-    <t>hp78b7</t>
+    <t>my28t3</t>
+  </si>
+  <si>
+    <t>rs34gw5</t>
   </si>
   <si>
     <t>北屯區北屯國小</t>
   </si>
   <si>
-    <t>蔡秉諭</t>
+    <t>陳妤淇</t>
   </si>
   <si>
     <t>王真麟</t>
   </si>
   <si>
-    <t>y81fr4</t>
-  </si>
-  <si>
-    <t>wh84d7</t>
-  </si>
-  <si>
-    <t>陳以錚</t>
-  </si>
-  <si>
-    <t>cd35fr8</t>
-  </si>
-  <si>
-    <t>et11h8</t>
-  </si>
-  <si>
-    <t>北屯區松竹國小</t>
-  </si>
-  <si>
-    <t>胡馨云</t>
-  </si>
-  <si>
-    <t>劉清宏</t>
-  </si>
-  <si>
-    <t>an19v2</t>
-  </si>
-  <si>
-    <t>nc1bj1</t>
+    <t>c80et7</t>
+  </si>
+  <si>
+    <t>et20sm5</t>
+  </si>
+  <si>
+    <t>孫如穎</t>
+  </si>
+  <si>
+    <t>t19a9</t>
+  </si>
+  <si>
+    <t>r91et5</t>
+  </si>
+  <si>
+    <t>北屯區四張犁國小</t>
+  </si>
+  <si>
+    <t>李京橘</t>
+  </si>
+  <si>
+    <t>張瓊文</t>
+  </si>
+  <si>
+    <t>cdx95sm3</t>
+  </si>
+  <si>
+    <t>ygw51n6</t>
+  </si>
+  <si>
+    <t>張綺玹</t>
+  </si>
+  <si>
+    <t>xb66p9</t>
+  </si>
+  <si>
+    <t>rs93yg8</t>
+  </si>
+  <si>
+    <t>張秝綺</t>
+  </si>
+  <si>
+    <t>張瓊雲</t>
+  </si>
+  <si>
+    <t>jk27t8</t>
+  </si>
+  <si>
+    <t>pe19c2</t>
   </si>
   <si>
     <t>北屯區軍功國小</t>
   </si>
   <si>
-    <t>劉怡彣</t>
-  </si>
-  <si>
-    <t>余嘉樺</t>
-  </si>
-  <si>
-    <t>etv82r5</t>
-  </si>
-  <si>
-    <t>jkf24t9</t>
+    <t>江典晏</t>
+  </si>
+  <si>
+    <t>黃士哲</t>
+  </si>
+  <si>
+    <t>hp93jk1</t>
+  </si>
+  <si>
+    <t>p65g7</t>
+  </si>
+  <si>
+    <t>北屯區陳平國小</t>
+  </si>
+  <si>
+    <t>楊絜茹</t>
+  </si>
+  <si>
+    <t>周冠廷</t>
+  </si>
+  <si>
+    <t>b2pe5</t>
+  </si>
+  <si>
+    <t>my75yg5</t>
   </si>
   <si>
     <t>北區中華國小</t>
@@ -288,289 +315,247 @@
     <t>顧智瑋</t>
   </si>
   <si>
-    <t>cd46j9</t>
-  </si>
-  <si>
-    <t>pet63pe5</t>
-  </si>
-  <si>
-    <t>杜炘紘</t>
-  </si>
-  <si>
-    <t>gw38m5</t>
-  </si>
-  <si>
-    <t>rs23b4</t>
+    <t>ncd23bj5</t>
+  </si>
+  <si>
+    <t>xb73my1</t>
+  </si>
+  <si>
+    <t>北區育仁小學</t>
+  </si>
+  <si>
+    <t>魏亦渲</t>
+  </si>
+  <si>
+    <t>蔡慧珍</t>
+  </si>
+  <si>
+    <t>Inkscape 0.92.3</t>
+  </si>
+  <si>
+    <t>v24sm2</t>
+  </si>
+  <si>
+    <t>v86dx4</t>
+  </si>
+  <si>
+    <t>北區臺中教大實小</t>
+  </si>
+  <si>
+    <t>楊馨蓓</t>
+  </si>
+  <si>
+    <t>林裕集</t>
+  </si>
+  <si>
+    <t>pet29e6</t>
+  </si>
+  <si>
+    <t>tv72c4</t>
   </si>
   <si>
     <t>北區賴厝國小</t>
   </si>
   <si>
-    <t>陳韋如</t>
+    <t>陳冠禎</t>
   </si>
   <si>
     <t>蔡佩勳</t>
   </si>
   <si>
-    <t>nc77my4</t>
-  </si>
-  <si>
-    <t>etv65g1</t>
-  </si>
-  <si>
-    <t>林品葳</t>
-  </si>
-  <si>
-    <t>何名奇</t>
-  </si>
-  <si>
-    <t>cd68dx7</t>
-  </si>
-  <si>
-    <t>fr74nc2</t>
-  </si>
-  <si>
-    <t>李香瑩</t>
-  </si>
-  <si>
-    <t>h27p1</t>
-  </si>
-  <si>
-    <t>d39bj5</t>
-  </si>
-  <si>
-    <t>廖小葵</t>
-  </si>
-  <si>
-    <t>fr22k3</t>
-  </si>
-  <si>
-    <t>nc61r7</t>
-  </si>
-  <si>
-    <t>西屯區國安國小</t>
-  </si>
-  <si>
-    <t>栗遠揚</t>
-  </si>
-  <si>
-    <t>胡梅珍</t>
-  </si>
-  <si>
-    <t>h57y8</t>
-  </si>
-  <si>
-    <t>r3s2</t>
-  </si>
-  <si>
-    <t>陳霈熙</t>
-  </si>
-  <si>
-    <t>蘇秋如</t>
-  </si>
-  <si>
-    <t>Inkscape 0.92.2</t>
-  </si>
-  <si>
-    <t>n67s3</t>
-  </si>
-  <si>
-    <t>et30yg3</t>
-  </si>
-  <si>
-    <t>西區大同國小</t>
-  </si>
-  <si>
-    <t>江蔓伶</t>
-  </si>
-  <si>
-    <t>紀宗寅</t>
-  </si>
-  <si>
-    <t>jk38r4</t>
-  </si>
-  <si>
-    <t>et16dx3</t>
-  </si>
-  <si>
-    <t>陳亮妤</t>
-  </si>
-  <si>
-    <t>ncd55gw8</t>
-  </si>
-  <si>
-    <t>rs39c9</t>
-  </si>
-  <si>
-    <t>葉家綾</t>
-  </si>
-  <si>
-    <t>cd84jk1</t>
-  </si>
-  <si>
-    <t>jk28xb3</t>
-  </si>
-  <si>
-    <t>盧家愛</t>
-  </si>
-  <si>
-    <t>冉治平</t>
-  </si>
-  <si>
-    <t>yg62cd4</t>
-  </si>
-  <si>
-    <t>hpe15pe7</t>
-  </si>
-  <si>
-    <t>沙鹿區竹林國小</t>
-  </si>
-  <si>
-    <t>蔡依潔</t>
-  </si>
-  <si>
-    <t>林鼎文</t>
-  </si>
-  <si>
-    <t>yg21nc1</t>
-  </si>
-  <si>
-    <t>wh26yg2</t>
+    <t>hpe26yg7</t>
+  </si>
+  <si>
+    <t>my83b7</t>
+  </si>
+  <si>
+    <t>郭丁綺</t>
+  </si>
+  <si>
+    <t>gwh86rs5</t>
+  </si>
+  <si>
+    <t>h55an2</t>
+  </si>
+  <si>
+    <t>外埔區外埔國小</t>
+  </si>
+  <si>
+    <t>劉邦唯</t>
+  </si>
+  <si>
+    <t>陳文鴻</t>
+  </si>
+  <si>
+    <t>m18jk7</t>
+  </si>
+  <si>
+    <t>nc12c5</t>
+  </si>
+  <si>
+    <t>邵湘妍</t>
+  </si>
+  <si>
+    <t>陳雅玲</t>
+  </si>
+  <si>
+    <t>yg27gw1</t>
+  </si>
+  <si>
+    <t>ncd5j4</t>
+  </si>
+  <si>
+    <t>劉翎唯</t>
+  </si>
+  <si>
+    <t>k31nc3</t>
+  </si>
+  <si>
+    <t>fr76et5</t>
+  </si>
+  <si>
+    <t>丁湘晏</t>
+  </si>
+  <si>
+    <t>g74n8</t>
+  </si>
+  <si>
+    <t>r43p6</t>
+  </si>
+  <si>
+    <t>西屯區西屯國小</t>
+  </si>
+  <si>
+    <t>曾姵嘉</t>
+  </si>
+  <si>
+    <t>邱棻</t>
+  </si>
+  <si>
+    <t>pet79nc6</t>
+  </si>
+  <si>
+    <t>pet4s4</t>
+  </si>
+  <si>
+    <t>蕭詩宜</t>
+  </si>
+  <si>
+    <t>ncd15h7</t>
+  </si>
+  <si>
+    <t>my80wh6</t>
+  </si>
+  <si>
+    <t>西屯區長安國小</t>
+  </si>
+  <si>
+    <t>李亭儀</t>
+  </si>
+  <si>
+    <t>林為光</t>
+  </si>
+  <si>
+    <t>h98yg3</t>
+  </si>
+  <si>
+    <t>n78pe2</t>
   </si>
   <si>
     <t>沙鹿區沙鹿國小</t>
   </si>
   <si>
-    <t>古旻仙</t>
+    <t>陳以倢</t>
   </si>
   <si>
     <t>陳有興</t>
   </si>
   <si>
-    <t>my38gw2</t>
-  </si>
-  <si>
-    <t>e92nc8</t>
-  </si>
-  <si>
-    <t>陳怡亘</t>
-  </si>
-  <si>
-    <t>tv14an6</t>
-  </si>
-  <si>
-    <t>cd85sm7</t>
-  </si>
-  <si>
-    <t>鄭芊慧</t>
-  </si>
-  <si>
-    <t>et62sm6</t>
-  </si>
-  <si>
-    <t>kf76bj3</t>
+    <t>a27p7</t>
+  </si>
+  <si>
+    <t>t68c3</t>
+  </si>
+  <si>
+    <t>古思庭</t>
+  </si>
+  <si>
+    <t>hp7e6</t>
+  </si>
+  <si>
+    <t>yg2k1</t>
+  </si>
+  <si>
+    <t>東區力行國小</t>
+  </si>
+  <si>
+    <t>黃昱馨</t>
+  </si>
+  <si>
+    <t>林景盛</t>
+  </si>
+  <si>
+    <t>cdx45gw5</t>
+  </si>
+  <si>
+    <t>x44d5</t>
   </si>
   <si>
     <t>東區成功國小</t>
   </si>
   <si>
-    <t>黃宛琪</t>
+    <t>張宥潔</t>
   </si>
   <si>
     <t>張鈺玟</t>
   </si>
   <si>
-    <t>tv39sm5</t>
-  </si>
-  <si>
-    <t>s25tv4</t>
-  </si>
-  <si>
-    <t>東勢區東勢國小</t>
-  </si>
-  <si>
-    <t>曾郁煊</t>
-  </si>
-  <si>
-    <t>羅之庭</t>
-  </si>
-  <si>
-    <t>Windows 小畫家3D</t>
-  </si>
-  <si>
-    <t>dxb89my5</t>
-  </si>
-  <si>
-    <t>wh83fr7</t>
+    <t>bj41c3</t>
+  </si>
+  <si>
+    <t>hp38yg2</t>
   </si>
   <si>
     <t>南屯區大新國小</t>
   </si>
   <si>
+    <t>陳怡岑</t>
+  </si>
+  <si>
+    <t>蔡婉琪</t>
+  </si>
+  <si>
+    <t>e7h6</t>
+  </si>
+  <si>
+    <t>nc86c7</t>
+  </si>
+  <si>
     <t>葉韋辰</t>
   </si>
   <si>
-    <t>蔡婉琪</t>
-  </si>
-  <si>
-    <t>hpe22fr6</t>
-  </si>
-  <si>
-    <t>pe45k2</t>
-  </si>
-  <si>
-    <t>柯喬晞</t>
-  </si>
-  <si>
-    <t>xbj3e1</t>
-  </si>
-  <si>
-    <t>dx92yg5</t>
-  </si>
-  <si>
-    <t>許宛庭</t>
-  </si>
-  <si>
-    <t>yg85jk5</t>
-  </si>
-  <si>
-    <t>j92hp8</t>
-  </si>
-  <si>
-    <t>許馨云</t>
-  </si>
-  <si>
-    <t>fr57d2</t>
-  </si>
-  <si>
-    <t>gw99m2</t>
-  </si>
-  <si>
-    <t>南屯區大墩國小</t>
-  </si>
-  <si>
-    <t>吳妮諺</t>
-  </si>
-  <si>
-    <t>呂岳霖</t>
-  </si>
-  <si>
-    <t>nc11r5</t>
-  </si>
-  <si>
-    <t>whp98e3</t>
-  </si>
-  <si>
-    <t>江瑋妮</t>
-  </si>
-  <si>
-    <t>賴明珠</t>
-  </si>
-  <si>
-    <t>bj40j5</t>
-  </si>
-  <si>
-    <t>et62a6</t>
+    <t>yg21x8</t>
+  </si>
+  <si>
+    <t>gw66w6</t>
+  </si>
+  <si>
+    <t>吳奕臻</t>
+  </si>
+  <si>
+    <t>dx96v3</t>
+  </si>
+  <si>
+    <t>tv63f5</t>
+  </si>
+  <si>
+    <t>黃郁慈</t>
+  </si>
+  <si>
+    <t>dx88r2</t>
+  </si>
+  <si>
+    <t>dxb31tv4</t>
   </si>
   <si>
     <t>南屯區文山國小</t>
@@ -582,103 +567,85 @@
     <t>林宜正</t>
   </si>
   <si>
-    <t>fr73e7</t>
-  </si>
-  <si>
-    <t>frs36tv4</t>
-  </si>
-  <si>
-    <t>蒲羿伶</t>
-  </si>
-  <si>
-    <t>v13cd9</t>
-  </si>
-  <si>
-    <t>sm53xb6</t>
-  </si>
-  <si>
-    <t>南屯區永春國小</t>
-  </si>
-  <si>
-    <t>陳暄宜</t>
-  </si>
-  <si>
-    <t>張淑芳</t>
-  </si>
-  <si>
-    <t>my9bj5</t>
-  </si>
-  <si>
-    <t>bj65yg2</t>
-  </si>
-  <si>
-    <t>連芳琪</t>
-  </si>
-  <si>
-    <t>e61k4</t>
-  </si>
-  <si>
-    <t>gw9yg9</t>
-  </si>
-  <si>
-    <t>南屯區東興國小</t>
-  </si>
-  <si>
-    <t>廖子晴</t>
-  </si>
-  <si>
-    <t>謝薰靜</t>
-  </si>
-  <si>
-    <t>x44c5</t>
-  </si>
-  <si>
-    <t>r85r3</t>
-  </si>
-  <si>
-    <t>南屯區惠文國小</t>
-  </si>
-  <si>
-    <t>張瑋庭</t>
-  </si>
-  <si>
-    <t>蔡小玲</t>
-  </si>
-  <si>
-    <t>tv51yg8</t>
-  </si>
-  <si>
-    <t>my80d4</t>
+    <t>gw7xb9</t>
+  </si>
+  <si>
+    <t>hp79rs4</t>
+  </si>
+  <si>
+    <t>南屯區鎮平國小</t>
+  </si>
+  <si>
+    <t>凃雨廷</t>
+  </si>
+  <si>
+    <t>黃秀惠</t>
+  </si>
+  <si>
+    <t>e67y9</t>
+  </si>
+  <si>
+    <t>h86nc6</t>
   </si>
   <si>
     <t>南區樹義國小</t>
   </si>
   <si>
-    <t>李佳霖</t>
+    <t>謝汶珈</t>
   </si>
   <si>
     <t>陳慧芳</t>
   </si>
   <si>
-    <t>frs67j5</t>
-  </si>
-  <si>
-    <t>nc87bj1</t>
-  </si>
-  <si>
-    <t>潭子區潭子國小</t>
-  </si>
-  <si>
-    <t>謝若可</t>
-  </si>
-  <si>
-    <t>簡綉芳</t>
-  </si>
-  <si>
-    <t>xbj72g4</t>
-  </si>
-  <si>
-    <t>hp82tv3</t>
+    <t>gw72g4</t>
+  </si>
+  <si>
+    <t>nc32hp4</t>
+  </si>
+  <si>
+    <t>神岡區神岡國小</t>
+  </si>
+  <si>
+    <t>陳資翰</t>
+  </si>
+  <si>
+    <t>林奎光</t>
+  </si>
+  <si>
+    <t>v3e2</t>
+  </si>
+  <si>
+    <t>t56et1</t>
+  </si>
+  <si>
+    <t>清水區西寧國小</t>
+  </si>
+  <si>
+    <t>余安喬</t>
+  </si>
+  <si>
+    <t>丁浩展</t>
+  </si>
+  <si>
+    <t>cdx39gw7</t>
+  </si>
+  <si>
+    <t>sm53t6</t>
+  </si>
+  <si>
+    <t>新社區新社國小</t>
+  </si>
+  <si>
+    <t>劉子瑩</t>
+  </si>
+  <si>
+    <t>王千維</t>
+  </si>
+  <si>
+    <t>jk19tv5</t>
+  </si>
+  <si>
+    <t>hp73et7</t>
   </si>
   <si>
     <t>潭子區潭陽國小</t>
@@ -690,10 +657,58 @@
     <t>陳晧玉</t>
   </si>
   <si>
-    <t>xb62et1</t>
-  </si>
-  <si>
-    <t>j97gw5</t>
+    <t>sm98et4</t>
+  </si>
+  <si>
+    <t>et67w3</t>
+  </si>
+  <si>
+    <t>豐原區豐田國小</t>
+  </si>
+  <si>
+    <t>賴妍心</t>
+  </si>
+  <si>
+    <t>劉俊顯</t>
+  </si>
+  <si>
+    <t>wh65et3</t>
+  </si>
+  <si>
+    <t>d39yg5</t>
+  </si>
+  <si>
+    <t>豐原區豐村國小</t>
+  </si>
+  <si>
+    <t>翁資晴</t>
+  </si>
+  <si>
+    <t>吳宗彥</t>
+  </si>
+  <si>
+    <t>d47v2</t>
+  </si>
+  <si>
+    <t>e37g1</t>
+  </si>
+  <si>
+    <t>趙育陞</t>
+  </si>
+  <si>
+    <t>pe70jk5</t>
+  </si>
+  <si>
+    <t>hp64x2</t>
+  </si>
+  <si>
+    <t>劉恩彤</t>
+  </si>
+  <si>
+    <t>wh30n9</t>
+  </si>
+  <si>
+    <t>x15et5</t>
   </si>
 </sst>
 </file>
@@ -1695,12 +1710,12 @@
   <cols>
     <col min="1" max="1" width="3.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.7265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.90625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -1772,13 +1787,13 @@
         <v>11</v>
       </c>
       <c r="F3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1789,22 +1804,22 @@
         <v>8</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1815,22 +1830,22 @@
         <v>8</v>
       </c>
       <c r="C5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="F5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="H5" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1841,22 +1856,22 @@
         <v>8</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1867,22 +1882,22 @@
         <v>8</v>
       </c>
       <c r="C7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="8" t="s">
         <v>34</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1893,22 +1908,22 @@
         <v>8</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="H8" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1919,22 +1934,22 @@
         <v>8</v>
       </c>
       <c r="C9" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="H9" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1945,22 +1960,22 @@
         <v>8</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="5" t="s">
+      <c r="H10" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1971,22 +1986,22 @@
         <v>8</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>52</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1997,22 +2012,22 @@
         <v>8</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2023,22 +2038,22 @@
         <v>8</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2049,22 +2064,22 @@
         <v>8</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2075,13 +2090,13 @@
         <v>8</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>12</v>
@@ -2101,22 +2116,22 @@
         <v>8</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2127,16 +2142,16 @@
         <v>8</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>79</v>
@@ -2153,22 +2168,22 @@
         <v>8</v>
       </c>
       <c r="C18" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="E18" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="F18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" s="5" t="s">
+      <c r="H18" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2179,22 +2194,22 @@
         <v>8</v>
       </c>
       <c r="C19" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="E19" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="F19" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="F19" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="8" t="s">
+      <c r="H19" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2205,22 +2220,22 @@
         <v>8</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>91</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2231,22 +2246,22 @@
         <v>8</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2257,22 +2272,22 @@
         <v>8</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2283,22 +2298,22 @@
         <v>8</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2309,22 +2324,22 @@
         <v>8</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2335,22 +2350,22 @@
         <v>8</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2361,22 +2376,22 @@
         <v>8</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>116</v>
+        <v>19</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2390,19 +2405,19 @@
         <v>119</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2416,19 +2431,19 @@
         <v>119</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>121</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2442,19 +2457,19 @@
         <v>119</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2465,22 +2480,22 @@
         <v>8</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2494,19 +2509,19 @@
         <v>134</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>136</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2517,22 +2532,22 @@
         <v>8</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2543,22 +2558,22 @@
         <v>8</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2569,22 +2584,22 @@
         <v>8</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2595,22 +2610,22 @@
         <v>8</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="F35" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="36" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2621,22 +2636,22 @@
         <v>8</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>158</v>
+        <v>103</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="37" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2647,22 +2662,22 @@
         <v>8</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2673,22 +2688,22 @@
         <v>8</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2699,22 +2714,22 @@
         <v>8</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2725,22 +2740,22 @@
         <v>8</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2751,22 +2766,22 @@
         <v>8</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="42" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2777,22 +2792,22 @@
         <v>8</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="43" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2803,22 +2818,22 @@
         <v>8</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="44" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2829,22 +2844,22 @@
         <v>8</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="45" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2855,22 +2870,22 @@
         <v>8</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="F45" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
     </row>
     <row r="46" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2881,22 +2896,22 @@
         <v>8</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
     </row>
     <row r="47" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2907,22 +2922,22 @@
         <v>8</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="F47" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
     </row>
     <row r="48" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2933,22 +2948,22 @@
         <v>8</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
     </row>
     <row r="49" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2959,22 +2974,22 @@
         <v>8</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2985,22 +3000,22 @@
         <v>8</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>116</v>
+        <v>19</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
     </row>
     <row r="51" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -3011,22 +3026,22 @@
         <v>8</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D51" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E51" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="E51" s="8" t="s">
-        <v>222</v>
-      </c>
       <c r="F51" s="8" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
